--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
@@ -5,23 +5,34 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mco34\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f62f462ffbd35deb/바탕 화면/선진/딥러닝 스터디/새 폴더/DeepLearningStudy/03_TEST_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721BD4A9-F151-4320-93F0-1FC39777236A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{721BD4A9-F151-4320-93F0-1FC39777236A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3B067F09-489B-4AF3-A869-DDC27A4D00B4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="54">
   <si>
     <t>박관희</t>
   </si>
@@ -1078,17 +1089,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:U8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1125,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1138,7 +1149,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1162,7 +1173,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1199,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1325,7 +1336,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1406,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1476,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1535,37 +1546,77 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="V10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1686,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1665,7 +1716,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1746,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1765,7 +1816,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1835,7 +1886,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1905,7 +1956,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1986,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +2056,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2075,7 +2126,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2156,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2175,7 +2226,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2296,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2315,7 +2366,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2436,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2415,93 +2466,93 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>65</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D26" s="10">
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E26" s="10">
+      <c r="K26" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F26" s="10">
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>56.75</v>
+        <v>61.75</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -2527,13 +2578,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2610,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2583,7 +2634,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2607,7 +2658,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2633,7 +2684,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2701,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2781,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2811,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -2790,7 +2841,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2871,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2850,7 +2901,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -2880,7 +2931,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2910,7 +2961,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2940,7 +2991,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -2970,7 +3021,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3000,7 +3051,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3081,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3060,7 +3111,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3090,7 +3141,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3120,7 +3171,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3150,7 +3201,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3180,7 +3231,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3261,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3240,7 +3291,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3270,7 +3321,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3300,7 +3351,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f62f462ffbd35deb/바탕 화면/선진/딥러닝 스터디/새 폴더/DeepLearningStudy/03_TEST_DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohsuzy\Desktop\딥러닝 스터디\DeepLearningStudy\03_TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{721BD4A9-F151-4320-93F0-1FC39777236A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3B067F09-489B-4AF3-A869-DDC27A4D00B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724673C-E88E-4C0D-A6DB-9D04556063C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1476" windowWidth="17280" windowHeight="8964" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="55">
   <si>
     <t>박관희</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1090,16 +1094,16 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1125,7 +1129,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1149,7 +1153,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1173,7 +1177,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1203,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1410,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1480,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1546,7 +1550,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1620,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1716,7 +1720,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1746,7 +1750,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1816,7 +1820,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1890,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1960,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1986,7 +1990,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -2056,7 +2060,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -2126,7 +2130,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2156,7 +2160,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2226,7 +2230,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2296,7 +2300,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2370,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2436,123 +2440,163 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10">
         <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>70</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D26" s="10">
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E26" s="10">
+      <c r="K26" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F26" s="10">
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
       </c>
       <c r="V26" s="6">
         <f>SUM(B26:U26)/20</f>
-        <v>61.75</v>
+        <v>66.5</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>41</v>
@@ -2578,13 +2622,13 @@
       <selection activeCell="A4" sqref="A4:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -2610,7 +2654,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2634,7 +2678,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2658,7 +2702,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2684,7 +2728,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2752,7 +2796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2781,7 +2825,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2811,7 +2855,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -2841,7 +2885,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -2871,7 +2915,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2945,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -2931,7 +2975,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2961,7 +3005,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2991,7 +3035,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -3021,7 +3065,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -3051,7 +3095,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -3081,7 +3125,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3155,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
@@ -3141,7 +3185,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
@@ -3171,7 +3215,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -3201,7 +3245,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3231,7 +3275,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3261,7 +3305,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3291,7 +3335,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3321,7 +3365,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3395,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>

--- a/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
+++ b/03_TEST_DATA/DeepLearningStudy_3기_채점표 (2).xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeon\git\DeepLearningStudy\03_TEST_DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D104F311-3F5A-461F-8598-E14573D3884A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
     <sheet name="2주차" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="57">
   <si>
     <t>박관희</t>
   </si>
@@ -200,14 +194,22 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -584,9 +586,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="입력" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="입력" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -768,7 +770,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -777,7 +779,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1089,21 +1091,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1131,7 @@
       <c r="U1" s="15"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1153,7 +1155,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1177,7 +1179,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1205,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>90%</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1412,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +1482,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1552,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1622,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1692,1332 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>75%</v>
+      </c>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>15%</v>
+      </c>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>75%</v>
+      </c>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>65%</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <f>COUNTIF(B6:B25,"O")*5</f>
+        <v>80</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
+        <v>75</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(B26:U26)/20</f>
+        <v>71</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8" t="str">
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1720,7 +3047,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1750,217 +3077,97 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15%</v>
+        <v>0%</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>85%</v>
+        <v>0%</v>
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>0%</v>
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1990,147 +3197,67 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>60%</v>
+        <v>0%</v>
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>0%</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2160,1092 +3287,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>90%</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>65%</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <f>COUNTIF(B6:B25,"O")*5</f>
-        <v>75</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:U26" si="1">COUNTIF(C6:C25,"O")*5</f>
-        <v>75</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="K26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="U26" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="V26" s="6">
-        <f>SUM(B26:U26)/20</f>
-        <v>67.25</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="str">
-        <f t="shared" ref="V7:V25" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -3275,7 +3317,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3347,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3335,7 +3377,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3365,7 +3407,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3395,7 +3437,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
